--- a/score_functions/statistiek hillclimber.xlsx
+++ b/score_functions/statistiek hillclimber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corne\Desktop\Mprog\Programmeertheorie\Lekker-oke-\score_functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7641C45B-E10F-4516-AFF2-237E5D069FEE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{32CBB105-027C-4FE2-BE64-179612E1F389}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8925" activeTab="1" xr2:uid="{60543AE2-8896-463A-A389-4BEB031B6416}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8925" xr2:uid="{60543AE2-8896-463A-A389-4BEB031B6416}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad3" sheetId="3" r:id="rId1"/>
@@ -34,13 +34,13 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{59A80A3B-83D8-4EA6-8641-F045119109E7}" keepAlive="1" name="Query - result" description="Verbinding maken met de query result in de werkmap." type="5" refreshedVersion="0" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - result" description="Verbinding maken met de query result in de werkmap." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result;Extended Properties=&quot;&quot;" command="SELECT * FROM [result]"/>
   </connection>
-  <connection id="2" xr16:uid="{D80A99BE-28CE-43AD-9E15-9419B141CAB5}" keepAlive="1" name="Query - result (2)" description="Verbinding maken met de query result (2) in de werkmap." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - result (2)" description="Verbinding maken met de query result (2) in de werkmap." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result (2);Extended Properties=&quot;&quot;" command="SELECT * FROM [result (2)]"/>
   </connection>
-  <connection id="3" xr16:uid="{A44FB7BD-86E6-4D6C-AEC2-62521D127DA0}" keepAlive="1" name="Query - result (3)" description="Verbinding maken met de query result (3) in de werkmap." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" keepAlive="1" name="Query - result (3)" description="Verbinding maken met de query result (3) in de werkmap." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=result (3);Extended Properties=&quot;&quot;" command="SELECT * FROM [result (3)]"/>
   </connection>
 </connections>
@@ -187,7 +187,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.501719893708938E-2"/>
+          <c:y val="0.11497725211146985"/>
+          <c:w val="0.87788135178754834"/>
+          <c:h val="0.83130252235074509"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -9068,15 +9078,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9225,7 +9235,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneGegevens_1" connectionId="2" xr16:uid="{73A06431-93BF-4288-852F-85FF01733699}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneGegevens_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9236,7 +9246,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneGegevens_1" connectionId="3" xr16:uid="{B820F1DE-4FB1-4B52-AB63-462454402A43}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExterneGegevens_1" connectionId="3" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="3">
     <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
@@ -9567,8 +9577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B103C61-738E-428E-BF6D-74FED607910D}">
   <dimension ref="A1:D605"/>
   <sheetViews>
-    <sheetView topLeftCell="A579" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A581" workbookViewId="0">
+      <selection activeCell="B605" sqref="B605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14438,8 +14448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13967B06-AE5C-4026-B6E1-E962D02331E1}">
   <dimension ref="A1:B498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D512" sqref="D512"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
